--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_sou.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_sou.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Wi2050\SDG Financing Simplified model (Egypt)\v4_commented and cleaned - for calibration\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804EE0F5-1954-42A1-BBA4-FBD650E98F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="9960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,25 +121,361 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -153,13 +483,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -167,17 +739,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -435,19 +1051,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="2:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,91 +1159,91 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>2.8548364020870718</v>
+        <v>5.85201598043707</v>
       </c>
       <c r="C2">
-        <v>2.7824383764885994</v>
+        <v>5.7983551653919</v>
       </c>
       <c r="D2">
-        <v>2.6957655307175599</v>
+        <v>5.63788271567161</v>
       </c>
       <c r="E2">
-        <v>2.6129843120077196</v>
+        <v>5.4816272034447</v>
       </c>
       <c r="F2">
-        <v>2.5342363990084076</v>
+        <v>5.33209077262628</v>
       </c>
       <c r="G2">
-        <v>2.4660408291070723</v>
+        <v>5.20483716313975</v>
       </c>
       <c r="H2">
-        <v>2.4002962632445728</v>
+        <v>5.58840950901111</v>
       </c>
       <c r="I2">
-        <v>2.3352944829589837</v>
+        <v>5.77511603986499</v>
       </c>
       <c r="J2">
-        <v>2.2754505582902738</v>
+        <v>5.63055238609589</v>
       </c>
       <c r="K2">
-        <v>2.2182384919319964</v>
+        <v>5.49057628928158</v>
       </c>
       <c r="L2">
-        <v>2.1642291249929468</v>
+        <v>5.35658522893121</v>
       </c>
       <c r="M2">
-        <v>2.1116511152498676</v>
+        <v>5.22354995226679</v>
       </c>
       <c r="N2">
-        <v>2.0601425789458681</v>
+        <v>5.14840964075747</v>
       </c>
       <c r="O2">
-        <v>2.0006005715634969</v>
+        <v>5.01669532234694</v>
       </c>
       <c r="P2">
-        <v>1.9613527269493238</v>
+        <v>4.92619517385973</v>
       </c>
       <c r="Q2">
-        <v>1.9328253408680465</v>
+        <v>4.87602891485239</v>
       </c>
       <c r="R2">
-        <v>1.9045097773306807</v>
+        <v>4.85560808309772</v>
       </c>
       <c r="S2">
-        <v>1.8626499346220255</v>
+        <v>4.79350801495184</v>
       </c>
       <c r="T2">
-        <v>1.8371226715352864</v>
+        <v>4.73180055653726</v>
       </c>
       <c r="U2">
-        <v>1.8109230734269788</v>
+        <v>4.68080718430454</v>
       </c>
       <c r="V2">
-        <v>1.7856826974715809</v>
+        <v>4.63290213750461</v>
       </c>
       <c r="W2">
-        <v>1.7609421780886365</v>
+        <v>4.58220127198928</v>
       </c>
       <c r="X2">
-        <v>1.7357913989827667</v>
+        <v>4.52079828733185</v>
       </c>
       <c r="Y2">
-        <v>1.7097976661234267</v>
+        <v>4.4543771911483</v>
       </c>
       <c r="Z2">
-        <v>1.685033219263147</v>
+        <v>4.38698224494176</v>
       </c>
       <c r="AA2">
-        <v>1.6654419305035166</v>
+        <v>4.31858064645137</v>
       </c>
       <c r="AB2">
-        <v>1.660669209287478</v>
+        <v>4.24895851694497</v>
       </c>
       <c r="AC2">
-        <v>1.6362292868554931</v>
+        <v>4.17858005843098</v>
       </c>
       <c r="AD2">
-        <v>0.41434972732629727</v>
+        <v>3.01898596446972</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -633,91 +1251,91 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>2.780330509542174E-2</v>
+        <v>0.0161830740983255</v>
       </c>
       <c r="C3">
-        <v>2.8560780444981653E-2</v>
+        <v>0.0163523316477201</v>
       </c>
       <c r="D3">
-        <v>1.4223336622971759E-2</v>
+        <v>0.0170233690449382</v>
       </c>
       <c r="E3">
-        <v>3.1113243085285569E-2</v>
+        <v>0.0176954439440258</v>
       </c>
       <c r="F3">
-        <v>3.2274775288817344E-2</v>
+        <v>0.0183021323783793</v>
       </c>
       <c r="G3">
-        <v>3.2762465166114835E-2</v>
+        <v>0.0185207497196072</v>
       </c>
       <c r="H3">
-        <v>3.3111949847627171E-2</v>
+        <v>0.016968765834142</v>
       </c>
       <c r="I3">
-        <v>3.0969692053920386E-2</v>
+        <v>0.0149419300932441</v>
       </c>
       <c r="J3">
-        <v>3.1249492534253454E-2</v>
+        <v>0.0150677443836312</v>
       </c>
       <c r="K3">
-        <v>3.1511335331941517E-2</v>
+        <v>0.0151895878163806</v>
       </c>
       <c r="L3">
-        <v>3.1683396364705345E-2</v>
+        <v>0.0152734034254186</v>
       </c>
       <c r="M3">
-        <v>3.1938341467643017E-2</v>
+        <v>0.0154048561991544</v>
       </c>
       <c r="N3">
-        <v>3.2262506584055314E-2</v>
+        <v>0.0154032074438217</v>
       </c>
       <c r="O3">
-        <v>3.437023506406521E-2</v>
+        <v>0.016353625187649</v>
       </c>
       <c r="P3">
-        <v>3.440344556601873E-2</v>
+        <v>0.016343117539897</v>
       </c>
       <c r="Q3">
-        <v>3.4265908612110603E-2</v>
+        <v>0.0162060608685131</v>
       </c>
       <c r="R3">
-        <v>3.41363555479385E-2</v>
+        <v>0.0159751744360504</v>
       </c>
       <c r="S3">
-        <v>3.6049946201545127E-2</v>
+        <v>0.0167136490790469</v>
       </c>
       <c r="T3">
-        <v>3.5767043471789231E-2</v>
+        <v>0.0165685172073457</v>
       </c>
       <c r="U3">
-        <v>3.5687052491650953E-2</v>
+        <v>0.0164732316295357</v>
       </c>
       <c r="V3">
-        <v>3.5503558433920189E-2</v>
+        <v>0.0163272078823757</v>
       </c>
       <c r="W3">
-        <v>3.5269165138544063E-2</v>
+        <v>0.016171674399699</v>
       </c>
       <c r="X3">
-        <v>3.509903934113745E-2</v>
+        <v>0.0160792766392781</v>
       </c>
       <c r="Y3">
-        <v>3.5135478728401767E-2</v>
+        <v>0.0160913499664919</v>
       </c>
       <c r="Z3">
-        <v>3.501277476820943E-2</v>
+        <v>0.0160456751414519</v>
       </c>
       <c r="AA3">
-        <v>3.4755044389472335E-2</v>
+        <v>0.0159917202123044</v>
       </c>
       <c r="AB3">
-        <v>3.4160231230180402E-2</v>
+        <v>0.0159297998450711</v>
       </c>
       <c r="AC3">
-        <v>3.3962992224544415E-2</v>
+        <v>0.0158675638678282</v>
       </c>
       <c r="AD3">
-        <v>6.2686985592552147E-2</v>
+        <v>0.021497317981352</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -725,88 +1343,91 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>2.5211961150832411E-2</v>
+        <v>0.0146747674086851</v>
       </c>
       <c r="C4">
-        <v>2.5539345442581091E-2</v>
+        <v>0.0146224241857563</v>
+      </c>
+      <c r="D4">
+        <v>0.0150362003670745</v>
       </c>
       <c r="E4">
-        <v>8.0344161792253541E-3</v>
+        <v>0.01546678170156</v>
       </c>
       <c r="F4">
-        <v>2.8026735441858242E-2</v>
+        <v>0.0158931864776896</v>
       </c>
       <c r="G4">
-        <v>2.8617320459317058E-2</v>
+        <v>0.0161774832017519</v>
       </c>
       <c r="H4">
-        <v>2.9216258065227308E-2</v>
+        <v>0.0149723542086795</v>
       </c>
       <c r="I4">
-        <v>2.9888492282824732E-2</v>
+        <v>0.0144202842412797</v>
       </c>
       <c r="J4">
-        <v>3.0467123895348468E-2</v>
+        <v>0.0146905052764082</v>
       </c>
       <c r="K4">
-        <v>3.1042842587962562E-2</v>
+        <v>0.0149637576000142</v>
       </c>
       <c r="L4">
-        <v>3.1584732380933088E-2</v>
+        <v>0.0152258411372608</v>
       </c>
       <c r="M4">
-        <v>3.2166108289966466E-2</v>
+        <v>0.0155147152270061</v>
       </c>
       <c r="N4">
-        <v>3.2805176039447867E-2</v>
+        <v>0.0156622961222868</v>
       </c>
       <c r="O4">
-        <v>3.3998848348459336E-2</v>
+        <v>0.0161769164995829</v>
       </c>
       <c r="P4">
-        <v>3.4454812719248662E-2</v>
+        <v>0.0163675191487798</v>
       </c>
       <c r="Q4">
-        <v>3.473945669937837E-2</v>
+        <v>0.0164300254279619</v>
       </c>
       <c r="R4">
-        <v>3.5037571650168617E-2</v>
+        <v>0.0163969266766339</v>
       </c>
       <c r="S4">
-        <v>3.6185432750088481E-2</v>
+        <v>0.0167764640029477</v>
       </c>
       <c r="T4">
-        <v>3.6410887732404904E-2</v>
+        <v>0.0168667678782257</v>
       </c>
       <c r="U4">
-        <v>3.6722712930929803E-2</v>
+        <v>0.0169512950479077</v>
       </c>
       <c r="V4">
-        <v>3.7019453127829491E-2</v>
+        <v>0.0170243303367716</v>
       </c>
       <c r="W4">
-        <v>3.732544998865206E-2</v>
+        <v>0.0171145254407812</v>
       </c>
       <c r="X4">
-        <v>3.7704298741411679E-2</v>
+        <v>0.0172727761595052</v>
       </c>
       <c r="Y4">
-        <v>3.8189707859981423E-2</v>
+        <v>0.0174901261213295</v>
       </c>
       <c r="Z4">
-        <v>3.8643041819292533E-2</v>
+        <v>0.0177093560740261</v>
       </c>
       <c r="AA4">
-        <v>3.8998271768019871E-2</v>
+        <v>0.017944141975157</v>
       </c>
       <c r="AB4">
-        <v>3.902353650958372E-2</v>
+        <v>0.0181976849528837</v>
       </c>
       <c r="AC4">
-        <v>3.952944293731897E-2</v>
+        <v>0.0184682184749988</v>
       </c>
       <c r="AD4">
-        <v>0.15584420616964972</v>
+        <v>0.0255202837891155</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -814,91 +1435,91 @@
         <v>32</v>
       </c>
       <c r="B5">
-        <v>5.6602398410370007E-2</v>
+        <v>0.00602292526519944</v>
       </c>
       <c r="C5">
-        <v>6.0296614230027905E-2</v>
+        <v>0.00923197578219761</v>
       </c>
       <c r="D5">
-        <v>5.9702255148127485E-2</v>
+        <v>0.0098522614113588</v>
       </c>
       <c r="E5">
-        <v>6.2360344390210216E-2</v>
+        <v>0.0105151364874359</v>
       </c>
       <c r="F5">
-        <v>6.2391615344371786E-2</v>
+        <v>0.0112179003762911</v>
       </c>
       <c r="G5">
-        <v>6.6533722179455662E-2</v>
+        <v>1.65907616903815</v>
       </c>
       <c r="H5">
-        <v>7.0927181429367145E-2</v>
+        <v>1.7775573946604</v>
       </c>
       <c r="I5">
-        <v>7.563625090646596E-2</v>
+        <v>0.00577609038567788</v>
       </c>
       <c r="J5">
-        <v>8.0559403602768392E-2</v>
+        <v>0.0086188975210369</v>
       </c>
       <c r="K5">
-        <v>8.5779543129329727E-2</v>
+        <v>0.00917459750283844</v>
       </c>
       <c r="L5">
-        <v>9.1421715464088948E-2</v>
+        <v>0.00976421787798935</v>
       </c>
       <c r="M5">
-        <v>9.7481908993156466E-2</v>
+        <v>0.174987132261386</v>
       </c>
       <c r="N5">
-        <v>0.10400623789426085</v>
+        <v>0.18504362829353</v>
       </c>
       <c r="O5">
-        <v>0.11136946038079984</v>
+        <v>0.197389128593393</v>
       </c>
       <c r="P5">
-        <v>1.3419392983089378E-2</v>
+        <v>0.472160376386513</v>
       </c>
       <c r="Q5">
-        <v>1.4202126206579208E-2</v>
+        <v>0.780516715799403</v>
       </c>
       <c r="R5">
-        <v>1.5001228796991837E-2</v>
+        <v>0.93310054992472</v>
       </c>
       <c r="S5">
-        <v>1.5965815699843851E-2</v>
+        <v>0.52323352268779</v>
       </c>
       <c r="T5">
-        <v>2.1004774333850808E-2</v>
+        <v>0.735117985336953</v>
       </c>
       <c r="U5">
-        <v>2.2863936248136259E-2</v>
+        <v>0.82749241784646</v>
       </c>
       <c r="V5">
-        <v>2.4899168018996932E-2</v>
+        <v>0.862263423655259</v>
       </c>
       <c r="W5">
-        <v>2.7141652612492025E-2</v>
+        <v>0.800834318620932</v>
       </c>
       <c r="X5">
-        <v>2.9624116023802299E-2</v>
+        <v>0.836547831277112</v>
       </c>
       <c r="Y5">
-        <v>3.2364844061649752E-2</v>
+        <v>0.823706705415105</v>
       </c>
       <c r="Z5">
-        <v>9.6865040510840106E-2</v>
+        <v>0.836847674715951</v>
       </c>
       <c r="AA5">
-        <v>0.3648101282557662</v>
+        <v>0.836987165923124</v>
       </c>
       <c r="AB5">
-        <v>2.4095657934079886E-2</v>
+        <v>0.83709579910979</v>
       </c>
       <c r="AC5">
-        <v>2.6630693935989786E-2</v>
+        <v>0.837169695832971</v>
       </c>
       <c r="AD5">
-        <v>0.29914669151685302</v>
+        <v>0.661911152915309</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -906,94 +1527,95 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>0.23161766465662414</v>
+        <v>0.15888076677221</v>
       </c>
       <c r="C6">
-        <v>0.23639674011759065</v>
+        <v>0.162206731615674</v>
       </c>
       <c r="D6">
-        <v>0.19592559177109925</v>
+        <v>0.163911830823371</v>
       </c>
       <c r="E6">
-        <v>0.22350800365472112</v>
+        <v>0.165677362133022</v>
       </c>
       <c r="F6">
-        <v>0.24469312607504737</v>
+        <v>0.16741321923236</v>
       </c>
       <c r="G6">
-        <v>0.24991350780488758</v>
+        <v>1.81577440195951</v>
       </c>
       <c r="H6">
-        <v>0.25525538934222158</v>
+        <v>1.93149851470322</v>
       </c>
       <c r="I6">
-        <v>0.25849443524321108</v>
+        <v>0.157138304720202</v>
       </c>
       <c r="J6">
-        <v>0.26427602003237033</v>
+        <v>0.160377147181076</v>
       </c>
       <c r="K6">
-        <v>0.27033372104923381</v>
+        <v>0.161327942919233</v>
       </c>
       <c r="L6">
-        <v>0.27668984420972736</v>
+        <v>0.162263462440669</v>
       </c>
       <c r="M6">
-        <v>0.28358635875076593</v>
+        <v>0.327906703687546</v>
       </c>
       <c r="N6">
-        <v>0.29107392051776404</v>
+        <v>0.338109131859638</v>
       </c>
       <c r="O6">
-        <v>0.30173854379332438</v>
+        <v>0.351919670280625</v>
       </c>
       <c r="P6">
-        <v>0.20427765126835679</v>
+        <v>0.62687101307519</v>
       </c>
       <c r="Q6">
-        <v>0.20520749151806819</v>
+        <v>0.935152802095878</v>
       </c>
       <c r="R6">
-        <v>0.20617515599509895</v>
+        <v>1.0874726510374</v>
       </c>
       <c r="S6">
-        <v>0.21020119465147746</v>
+        <v>0.678723635769784</v>
       </c>
       <c r="T6">
-        <v>0.21518270553804494</v>
+        <v>0.890553270422524</v>
       </c>
       <c r="U6">
-        <v>0.21727370167071702</v>
+        <v>0.982916944523903</v>
       </c>
       <c r="V6">
-        <v>0.21942217958074661</v>
+        <v>1.01761496187441</v>
       </c>
       <c r="W6">
-        <v>0.22173626773968813</v>
+        <v>0.956120518461413</v>
       </c>
       <c r="X6">
-        <v>0.2244274541063514</v>
+        <v>0.991899884075895</v>
       </c>
       <c r="Y6">
-        <v>0.22769003065003296</v>
+        <v>0.979288181502926</v>
       </c>
       <c r="Z6">
-        <v>0.29252085709834208</v>
+        <v>0.992602705931429</v>
       </c>
       <c r="AA6">
-        <v>0.56056344441325834</v>
+        <v>0.992923028110585</v>
       </c>
       <c r="AB6">
-        <v>0.21927942567384401</v>
+        <v>0.993223283907745</v>
       </c>
       <c r="AC6">
-        <v>0.22212312909785314</v>
+        <v>0.993505478175798</v>
       </c>
       <c r="AD6">
-        <v>0.63967788327907171</v>
+        <v>0.830928754685762</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>